--- a/TPI_REEL/Planning/Murat_Planning.xlsx
+++ b/TPI_REEL/Planning/Murat_Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TPI_REEL_MDR\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TPI_REEL\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Lecture du cahier des charges</t>
   </si>
@@ -121,15 +121,6 @@
   <si>
     <t>Date</t>
   </si>
-  <si>
-    <t>Tâche réalisée par rapport aux périodes initiales</t>
-  </si>
-  <si>
-    <t>Tâche réalisée en dehors des périodes prévues</t>
-  </si>
-  <si>
-    <t>Tâche initiale</t>
-  </si>
 </sst>
 </file>
 
@@ -155,7 +146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,18 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -297,6 +276,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -306,21 +286,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +319,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -396,13 +373,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -450,13 +427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -504,13 +481,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -558,13 +535,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -612,13 +589,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -666,13 +643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -720,13 +697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -774,13 +751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -828,13 +805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -882,13 +859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -936,13 +913,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -990,13 +967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>116</xdr:col>
+      <xdr:col>115</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>116</xdr:col>
+      <xdr:col>115</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1308,921 +1285,926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:DN48"/>
+  <dimension ref="A7:DM48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="61.140625" customWidth="1"/>
-    <col min="8" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="106" width="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="117" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="68" width="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="96" width="3" customWidth="1"/>
+    <col min="97" max="105" width="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="116" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14">
         <v>42807</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14">
         <v>42808</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14">
         <v>42815</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="13">
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14">
         <v>42816</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="13">
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14">
         <v>42821</v>
       </c>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="13">
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="14">
         <v>42822</v>
       </c>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="13">
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="14">
         <v>42824</v>
       </c>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="13">
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="14">
         <v>42843</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="13">
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="14">
         <v>42845</v>
       </c>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
-      <c r="BH10" s="13">
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="14">
         <v>42846</v>
       </c>
-      <c r="BI10" s="12"/>
-      <c r="BJ10" s="12"/>
-      <c r="BK10" s="12"/>
-      <c r="BL10" s="13">
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="14">
         <v>42849</v>
       </c>
-      <c r="BM10" s="12"/>
-      <c r="BN10" s="12"/>
-      <c r="BO10" s="12"/>
-      <c r="BP10" s="13">
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="14">
         <v>42850</v>
       </c>
-      <c r="BQ10" s="12"/>
-      <c r="BR10" s="12"/>
-      <c r="BS10" s="12"/>
-      <c r="BT10" s="12"/>
-      <c r="BU10" s="12"/>
-      <c r="BV10" s="12"/>
-      <c r="BW10" s="12"/>
-      <c r="BX10" s="12"/>
-      <c r="BY10" s="13">
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="14">
         <v>42852</v>
       </c>
-      <c r="BZ10" s="12"/>
-      <c r="CA10" s="12"/>
-      <c r="CB10" s="12"/>
-      <c r="CC10" s="13">
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="14">
         <v>42853</v>
       </c>
-      <c r="CD10" s="12"/>
-      <c r="CE10" s="12"/>
-      <c r="CF10" s="12"/>
-      <c r="CG10" s="13">
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="14">
         <v>42857</v>
       </c>
-      <c r="CH10" s="12"/>
-      <c r="CI10" s="12"/>
-      <c r="CJ10" s="12"/>
-      <c r="CK10" s="12"/>
-      <c r="CL10" s="12"/>
-      <c r="CM10" s="12"/>
-      <c r="CN10" s="12"/>
-      <c r="CO10" s="12"/>
-      <c r="CP10" s="13">
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="13"/>
+      <c r="CM10" s="13"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="14">
         <v>42798</v>
       </c>
-      <c r="CQ10" s="12"/>
-      <c r="CR10" s="12"/>
-      <c r="CS10" s="12"/>
-      <c r="CT10" s="13">
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="14">
         <v>42799</v>
       </c>
-      <c r="CU10" s="12"/>
-      <c r="CV10" s="12"/>
-      <c r="CW10" s="12"/>
-      <c r="CX10" s="13">
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="14">
         <v>42802</v>
       </c>
-      <c r="CY10" s="12"/>
-      <c r="CZ10" s="12"/>
-      <c r="DA10" s="12"/>
-      <c r="DB10" s="13">
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="14">
         <v>42803</v>
       </c>
-      <c r="DC10" s="12"/>
-      <c r="DD10" s="12"/>
-      <c r="DE10" s="12"/>
-      <c r="DF10" s="12"/>
-      <c r="DG10" s="12"/>
-      <c r="DH10" s="12"/>
-      <c r="DI10" s="12"/>
-      <c r="DJ10" s="12"/>
-      <c r="DK10" s="13">
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="14">
         <v>42805</v>
       </c>
-      <c r="DL10" s="12"/>
-      <c r="DM10" s="12"/>
-      <c r="DN10" s="12" t="s">
+      <c r="DK10" s="13"/>
+      <c r="DL10" s="13"/>
+      <c r="DM10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="12"/>
-      <c r="BG11" s="12"/>
-      <c r="BH11" s="12"/>
-      <c r="BI11" s="12"/>
-      <c r="BJ11" s="12"/>
-      <c r="BK11" s="12"/>
-      <c r="BL11" s="12"/>
-      <c r="BM11" s="12"/>
-      <c r="BN11" s="12"/>
-      <c r="BO11" s="12"/>
-      <c r="BP11" s="12"/>
-      <c r="BQ11" s="12"/>
-      <c r="BR11" s="12"/>
-      <c r="BS11" s="12"/>
-      <c r="BT11" s="12"/>
-      <c r="BU11" s="12"/>
-      <c r="BV11" s="12"/>
-      <c r="BW11" s="12"/>
-      <c r="BX11" s="12"/>
-      <c r="BY11" s="12"/>
-      <c r="BZ11" s="12"/>
-      <c r="CA11" s="12"/>
-      <c r="CB11" s="12"/>
-      <c r="CC11" s="12"/>
-      <c r="CD11" s="12"/>
-      <c r="CE11" s="12"/>
-      <c r="CF11" s="12"/>
-      <c r="CG11" s="12"/>
-      <c r="CH11" s="12"/>
-      <c r="CI11" s="12"/>
-      <c r="CJ11" s="12"/>
-      <c r="CK11" s="12"/>
-      <c r="CL11" s="12"/>
-      <c r="CM11" s="12"/>
-      <c r="CN11" s="12"/>
-      <c r="CO11" s="12"/>
-      <c r="CP11" s="12"/>
-      <c r="CQ11" s="12"/>
-      <c r="CR11" s="12"/>
-      <c r="CS11" s="12"/>
-      <c r="CT11" s="12"/>
-      <c r="CU11" s="12"/>
-      <c r="CV11" s="12"/>
-      <c r="CW11" s="12"/>
-      <c r="CX11" s="12"/>
-      <c r="CY11" s="12"/>
-      <c r="CZ11" s="12"/>
-      <c r="DA11" s="12"/>
-      <c r="DB11" s="12"/>
-      <c r="DC11" s="12"/>
-      <c r="DD11" s="12"/>
-      <c r="DE11" s="12"/>
-      <c r="DF11" s="12"/>
-      <c r="DG11" s="12"/>
-      <c r="DH11" s="12"/>
-      <c r="DI11" s="12"/>
-      <c r="DJ11" s="12"/>
-      <c r="DK11" s="12"/>
-      <c r="DL11" s="12"/>
-      <c r="DM11" s="12"/>
-      <c r="DN11" s="12"/>
+    <row r="11" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="13"/>
+      <c r="CM11" s="13"/>
+      <c r="CN11" s="13"/>
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="13"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
+      <c r="CU11" s="13"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="13"/>
+      <c r="DG11" s="13"/>
+      <c r="DH11" s="13"/>
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="13"/>
+      <c r="DK11" s="13"/>
+      <c r="DL11" s="13"/>
+      <c r="DM11" s="13"/>
     </row>
-    <row r="12" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12"/>
-      <c r="BB12" s="12"/>
-      <c r="BC12" s="12"/>
-      <c r="BD12" s="12"/>
-      <c r="BE12" s="12"/>
-      <c r="BF12" s="12"/>
-      <c r="BG12" s="12"/>
-      <c r="BH12" s="12"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="12"/>
-      <c r="BK12" s="12"/>
-      <c r="BL12" s="12"/>
-      <c r="BM12" s="12"/>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="12"/>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="12"/>
-      <c r="BR12" s="12"/>
-      <c r="BS12" s="12"/>
-      <c r="BT12" s="12"/>
-      <c r="BU12" s="12"/>
-      <c r="BV12" s="12"/>
-      <c r="BW12" s="12"/>
-      <c r="BX12" s="12"/>
-      <c r="BY12" s="12"/>
-      <c r="BZ12" s="12"/>
-      <c r="CA12" s="12"/>
-      <c r="CB12" s="12"/>
-      <c r="CC12" s="12"/>
-      <c r="CD12" s="12"/>
-      <c r="CE12" s="12"/>
-      <c r="CF12" s="12"/>
-      <c r="CG12" s="12"/>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="12"/>
-      <c r="CJ12" s="12"/>
-      <c r="CK12" s="12"/>
-      <c r="CL12" s="12"/>
-      <c r="CM12" s="12"/>
-      <c r="CN12" s="12"/>
-      <c r="CO12" s="12"/>
-      <c r="CP12" s="12"/>
-      <c r="CQ12" s="12"/>
-      <c r="CR12" s="12"/>
-      <c r="CS12" s="12"/>
-      <c r="CT12" s="12"/>
-      <c r="CU12" s="12"/>
-      <c r="CV12" s="12"/>
-      <c r="CW12" s="12"/>
-      <c r="CX12" s="12"/>
-      <c r="CY12" s="12"/>
-      <c r="CZ12" s="12"/>
-      <c r="DA12" s="12"/>
-      <c r="DB12" s="12"/>
-      <c r="DC12" s="12"/>
-      <c r="DD12" s="12"/>
-      <c r="DE12" s="12"/>
-      <c r="DF12" s="12"/>
-      <c r="DG12" s="12"/>
-      <c r="DH12" s="12"/>
-      <c r="DI12" s="12"/>
-      <c r="DJ12" s="12"/>
-      <c r="DK12" s="12"/>
-      <c r="DL12" s="12"/>
-      <c r="DM12" s="12"/>
-      <c r="DN12" s="12"/>
+    <row r="12" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="13"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13"/>
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="13"/>
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="13"/>
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="13"/>
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="13"/>
+      <c r="CU12" s="13"/>
+      <c r="CV12" s="13"/>
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="13"/>
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13"/>
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="13"/>
+      <c r="DC12" s="13"/>
+      <c r="DD12" s="13"/>
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="13"/>
+      <c r="DG12" s="13"/>
+      <c r="DH12" s="13"/>
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="13"/>
+      <c r="DK12" s="13"/>
+      <c r="DL12" s="13"/>
+      <c r="DM12" s="13"/>
     </row>
-    <row r="13" spans="2:118" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="12"/>
-      <c r="BH13" s="12"/>
-      <c r="BI13" s="12"/>
-      <c r="BJ13" s="12"/>
-      <c r="BK13" s="12"/>
-      <c r="BL13" s="12"/>
-      <c r="BM13" s="12"/>
-      <c r="BN13" s="12"/>
-      <c r="BO13" s="12"/>
-      <c r="BP13" s="12"/>
-      <c r="BQ13" s="12"/>
-      <c r="BR13" s="12"/>
-      <c r="BS13" s="12"/>
-      <c r="BT13" s="12"/>
-      <c r="BU13" s="12"/>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="12"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="12"/>
-      <c r="CA13" s="12"/>
-      <c r="CB13" s="12"/>
-      <c r="CC13" s="12"/>
-      <c r="CD13" s="12"/>
-      <c r="CE13" s="12"/>
-      <c r="CF13" s="12"/>
-      <c r="CG13" s="12"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="12"/>
-      <c r="CJ13" s="12"/>
-      <c r="CK13" s="12"/>
-      <c r="CL13" s="12"/>
-      <c r="CM13" s="12"/>
-      <c r="CN13" s="12"/>
-      <c r="CO13" s="12"/>
-      <c r="CP13" s="12"/>
-      <c r="CQ13" s="12"/>
-      <c r="CR13" s="12"/>
-      <c r="CS13" s="12"/>
-      <c r="CT13" s="12"/>
-      <c r="CU13" s="12"/>
-      <c r="CV13" s="12"/>
-      <c r="CW13" s="12"/>
-      <c r="CX13" s="12"/>
-      <c r="CY13" s="12"/>
-      <c r="CZ13" s="12"/>
-      <c r="DA13" s="12"/>
-      <c r="DB13" s="12"/>
-      <c r="DC13" s="12"/>
-      <c r="DD13" s="12"/>
-      <c r="DE13" s="12"/>
-      <c r="DF13" s="12"/>
-      <c r="DG13" s="12"/>
-      <c r="DH13" s="12"/>
-      <c r="DI13" s="12"/>
-      <c r="DJ13" s="12"/>
-      <c r="DK13" s="12"/>
-      <c r="DL13" s="12"/>
-      <c r="DM13" s="12"/>
-      <c r="DN13" s="12"/>
+    <row r="13" spans="1:117" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="13"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="13"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="13"/>
+      <c r="CI13" s="13"/>
+      <c r="CJ13" s="13"/>
+      <c r="CK13" s="13"/>
+      <c r="CL13" s="13"/>
+      <c r="CM13" s="13"/>
+      <c r="CN13" s="13"/>
+      <c r="CO13" s="13"/>
+      <c r="CP13" s="13"/>
+      <c r="CQ13" s="13"/>
+      <c r="CR13" s="13"/>
+      <c r="CS13" s="13"/>
+      <c r="CT13" s="13"/>
+      <c r="CU13" s="13"/>
+      <c r="CV13" s="13"/>
+      <c r="CW13" s="13"/>
+      <c r="CX13" s="13"/>
+      <c r="CY13" s="13"/>
+      <c r="CZ13" s="13"/>
+      <c r="DA13" s="13"/>
+      <c r="DB13" s="13"/>
+      <c r="DC13" s="13"/>
+      <c r="DD13" s="13"/>
+      <c r="DE13" s="13"/>
+      <c r="DF13" s="13"/>
+      <c r="DG13" s="13"/>
+      <c r="DH13" s="13"/>
+      <c r="DI13" s="13"/>
+      <c r="DJ13" s="13"/>
+      <c r="DK13" s="13"/>
+      <c r="DL13" s="13"/>
+      <c r="DM13" s="13"/>
     </row>
-    <row r="14" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>6</v>
+      </c>
+      <c r="M14" s="8">
+        <v>7</v>
+      </c>
+      <c r="N14" s="8">
+        <v>8</v>
+      </c>
+      <c r="O14" s="8">
+        <v>9</v>
+      </c>
+      <c r="P14" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>11</v>
+      </c>
+      <c r="R14" s="8">
+        <v>12</v>
+      </c>
+      <c r="S14" s="8">
+        <v>13</v>
+      </c>
+      <c r="T14" s="8">
+        <v>14</v>
+      </c>
+      <c r="U14" s="8">
+        <v>15</v>
+      </c>
+      <c r="V14" s="8">
+        <v>16</v>
+      </c>
+      <c r="W14" s="8">
+        <v>17</v>
+      </c>
+      <c r="X14" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>21</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>25</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>26</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>27</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>29</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>30</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>31</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>32</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>33</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>34</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>35</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>36</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>37</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>38</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>39</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>40</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>41</v>
+      </c>
+      <c r="AV14" s="8">
+        <v>42</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>43</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>44</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>45</v>
+      </c>
+      <c r="AZ14" s="8">
+        <v>46</v>
+      </c>
+      <c r="BA14" s="8">
+        <v>47</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>48</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>49</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>50</v>
+      </c>
+      <c r="BE14" s="8">
+        <v>51</v>
+      </c>
+      <c r="BF14" s="8">
+        <v>52</v>
+      </c>
+      <c r="BG14" s="8">
+        <v>53</v>
+      </c>
+      <c r="BH14" s="8">
+        <v>54</v>
+      </c>
+      <c r="BI14" s="8">
+        <v>55</v>
+      </c>
+      <c r="BJ14" s="8">
+        <v>56</v>
+      </c>
+      <c r="BK14" s="8">
+        <v>57</v>
+      </c>
+      <c r="BL14" s="8">
+        <v>58</v>
+      </c>
+      <c r="BM14" s="8">
+        <v>59</v>
+      </c>
+      <c r="BN14" s="8">
+        <v>60</v>
+      </c>
+      <c r="BO14" s="8">
+        <v>61</v>
+      </c>
+      <c r="BP14" s="8">
+        <v>62</v>
+      </c>
+      <c r="BQ14" s="8">
+        <v>63</v>
+      </c>
+      <c r="BR14" s="8">
+        <v>64</v>
+      </c>
+      <c r="BS14" s="8">
+        <v>65</v>
+      </c>
+      <c r="BT14" s="8">
+        <v>66</v>
+      </c>
+      <c r="BU14" s="8">
+        <v>67</v>
+      </c>
+      <c r="BV14" s="8">
+        <v>68</v>
+      </c>
+      <c r="BW14" s="8">
+        <v>69</v>
+      </c>
+      <c r="BX14" s="8">
+        <v>70</v>
+      </c>
+      <c r="BY14" s="8">
+        <v>71</v>
+      </c>
+      <c r="BZ14" s="8">
+        <v>72</v>
+      </c>
+      <c r="CA14" s="8">
+        <v>73</v>
+      </c>
+      <c r="CB14" s="8">
+        <v>74</v>
+      </c>
+      <c r="CC14" s="8">
+        <v>75</v>
+      </c>
+      <c r="CD14" s="8">
+        <v>76</v>
+      </c>
+      <c r="CE14" s="8">
+        <v>77</v>
+      </c>
+      <c r="CF14" s="8">
+        <v>78</v>
+      </c>
+      <c r="CG14" s="8">
+        <v>79</v>
+      </c>
+      <c r="CH14" s="8">
+        <v>80</v>
+      </c>
+      <c r="CI14" s="8">
+        <v>81</v>
+      </c>
+      <c r="CJ14" s="8">
+        <v>82</v>
+      </c>
+      <c r="CK14" s="8">
+        <v>83</v>
+      </c>
+      <c r="CL14" s="8">
+        <v>84</v>
+      </c>
+      <c r="CM14" s="8">
+        <v>85</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>86</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>87</v>
+      </c>
+      <c r="CP14" s="8">
+        <v>88</v>
+      </c>
+      <c r="CQ14" s="8">
+        <v>89</v>
+      </c>
+      <c r="CR14" s="8">
+        <v>90</v>
+      </c>
+      <c r="CS14" s="8">
+        <v>91</v>
+      </c>
+      <c r="CT14" s="8">
+        <v>92</v>
+      </c>
+      <c r="CU14" s="8">
+        <v>93</v>
+      </c>
+      <c r="CV14" s="8">
+        <v>94</v>
+      </c>
+      <c r="CW14" s="8">
+        <v>95</v>
+      </c>
+      <c r="CX14" s="8">
+        <v>96</v>
+      </c>
+      <c r="CY14" s="8">
+        <v>97</v>
+      </c>
+      <c r="CZ14" s="8">
+        <v>98</v>
+      </c>
+      <c r="DA14" s="8">
+        <v>99</v>
+      </c>
+      <c r="DB14" s="8">
+        <v>100</v>
+      </c>
+      <c r="DC14" s="8">
+        <v>101</v>
+      </c>
+      <c r="DD14" s="8">
+        <v>102</v>
+      </c>
+      <c r="DE14" s="8">
+        <v>103</v>
+      </c>
+      <c r="DF14" s="8">
+        <v>104</v>
+      </c>
+      <c r="DG14" s="8">
+        <v>105</v>
+      </c>
+      <c r="DH14" s="8">
+        <v>106</v>
+      </c>
+      <c r="DI14" s="8">
+        <v>107</v>
+      </c>
+      <c r="DJ14" s="8">
+        <v>108</v>
+      </c>
+      <c r="DK14" s="8">
+        <v>109</v>
+      </c>
+      <c r="DL14" s="8">
+        <v>110</v>
+      </c>
+      <c r="DM14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3</v>
-      </c>
-      <c r="K14" s="8">
-        <v>4</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5</v>
-      </c>
-      <c r="M14" s="8">
-        <v>6</v>
-      </c>
-      <c r="N14" s="8">
-        <v>7</v>
-      </c>
-      <c r="O14" s="8">
-        <v>8</v>
-      </c>
-      <c r="P14" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>10</v>
-      </c>
-      <c r="R14" s="8">
-        <v>11</v>
-      </c>
-      <c r="S14" s="8">
-        <v>12</v>
-      </c>
-      <c r="T14" s="8">
-        <v>13</v>
-      </c>
-      <c r="U14" s="8">
-        <v>14</v>
-      </c>
-      <c r="V14" s="8">
-        <v>15</v>
-      </c>
-      <c r="W14" s="8">
-        <v>16</v>
-      </c>
-      <c r="X14" s="8">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>19</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>20</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>21</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>22</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>23</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>24</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>25</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>26</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>27</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>28</v>
-      </c>
-      <c r="AJ14" s="8">
-        <v>29</v>
-      </c>
-      <c r="AK14" s="8">
-        <v>30</v>
-      </c>
-      <c r="AL14" s="8">
-        <v>31</v>
-      </c>
-      <c r="AM14" s="8">
-        <v>32</v>
-      </c>
-      <c r="AN14" s="8">
-        <v>33</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>34</v>
-      </c>
-      <c r="AP14" s="8">
-        <v>35</v>
-      </c>
-      <c r="AQ14" s="8">
-        <v>36</v>
-      </c>
-      <c r="AR14" s="8">
-        <v>37</v>
-      </c>
-      <c r="AS14" s="8">
-        <v>38</v>
-      </c>
-      <c r="AT14" s="8">
-        <v>39</v>
-      </c>
-      <c r="AU14" s="8">
-        <v>40</v>
-      </c>
-      <c r="AV14" s="8">
-        <v>41</v>
-      </c>
-      <c r="AW14" s="8">
-        <v>42</v>
-      </c>
-      <c r="AX14" s="8">
-        <v>43</v>
-      </c>
-      <c r="AY14" s="8">
-        <v>44</v>
-      </c>
-      <c r="AZ14" s="8">
-        <v>45</v>
-      </c>
-      <c r="BA14" s="8">
-        <v>46</v>
-      </c>
-      <c r="BB14" s="8">
-        <v>47</v>
-      </c>
-      <c r="BC14" s="8">
-        <v>48</v>
-      </c>
-      <c r="BD14" s="8">
-        <v>49</v>
-      </c>
-      <c r="BE14" s="8">
-        <v>50</v>
-      </c>
-      <c r="BF14" s="8">
-        <v>51</v>
-      </c>
-      <c r="BG14" s="8">
-        <v>52</v>
-      </c>
-      <c r="BH14" s="8">
-        <v>53</v>
-      </c>
-      <c r="BI14" s="8">
-        <v>54</v>
-      </c>
-      <c r="BJ14" s="8">
-        <v>55</v>
-      </c>
-      <c r="BK14" s="8">
-        <v>56</v>
-      </c>
-      <c r="BL14" s="8">
-        <v>57</v>
-      </c>
-      <c r="BM14" s="8">
-        <v>58</v>
-      </c>
-      <c r="BN14" s="8">
-        <v>59</v>
-      </c>
-      <c r="BO14" s="8">
-        <v>60</v>
-      </c>
-      <c r="BP14" s="8">
-        <v>61</v>
-      </c>
-      <c r="BQ14" s="8">
-        <v>62</v>
-      </c>
-      <c r="BR14" s="8">
-        <v>63</v>
-      </c>
-      <c r="BS14" s="8">
-        <v>64</v>
-      </c>
-      <c r="BT14" s="8">
-        <v>65</v>
-      </c>
-      <c r="BU14" s="8">
-        <v>66</v>
-      </c>
-      <c r="BV14" s="8">
-        <v>67</v>
-      </c>
-      <c r="BW14" s="8">
-        <v>68</v>
-      </c>
-      <c r="BX14" s="8">
-        <v>69</v>
-      </c>
-      <c r="BY14" s="8">
-        <v>70</v>
-      </c>
-      <c r="BZ14" s="8">
-        <v>71</v>
-      </c>
-      <c r="CA14" s="8">
-        <v>72</v>
-      </c>
-      <c r="CB14" s="8">
-        <v>73</v>
-      </c>
-      <c r="CC14" s="8">
-        <v>74</v>
-      </c>
-      <c r="CD14" s="8">
-        <v>75</v>
-      </c>
-      <c r="CE14" s="8">
-        <v>76</v>
-      </c>
-      <c r="CF14" s="8">
-        <v>77</v>
-      </c>
-      <c r="CG14" s="8">
-        <v>78</v>
-      </c>
-      <c r="CH14" s="8">
-        <v>79</v>
-      </c>
-      <c r="CI14" s="8">
-        <v>80</v>
-      </c>
-      <c r="CJ14" s="8">
-        <v>81</v>
-      </c>
-      <c r="CK14" s="8">
-        <v>82</v>
-      </c>
-      <c r="CL14" s="8">
-        <v>83</v>
-      </c>
-      <c r="CM14" s="8">
-        <v>84</v>
-      </c>
-      <c r="CN14" s="8">
-        <v>85</v>
-      </c>
-      <c r="CO14" s="8">
-        <v>86</v>
-      </c>
-      <c r="CP14" s="8">
-        <v>87</v>
-      </c>
-      <c r="CQ14" s="8">
-        <v>88</v>
-      </c>
-      <c r="CR14" s="8">
-        <v>89</v>
-      </c>
-      <c r="CS14" s="8">
-        <v>90</v>
-      </c>
-      <c r="CT14" s="8">
-        <v>91</v>
-      </c>
-      <c r="CU14" s="8">
-        <v>92</v>
-      </c>
-      <c r="CV14" s="8">
-        <v>93</v>
-      </c>
-      <c r="CW14" s="8">
-        <v>94</v>
-      </c>
-      <c r="CX14" s="8">
-        <v>95</v>
-      </c>
-      <c r="CY14" s="8">
-        <v>96</v>
-      </c>
-      <c r="CZ14" s="8">
-        <v>97</v>
-      </c>
-      <c r="DA14" s="8">
-        <v>98</v>
-      </c>
-      <c r="DB14" s="8">
-        <v>99</v>
-      </c>
-      <c r="DC14" s="8">
-        <v>100</v>
-      </c>
-      <c r="DD14" s="8">
-        <v>101</v>
-      </c>
-      <c r="DE14" s="8">
-        <v>102</v>
-      </c>
-      <c r="DF14" s="8">
-        <v>103</v>
-      </c>
-      <c r="DG14" s="8">
-        <v>104</v>
-      </c>
-      <c r="DH14" s="8">
-        <v>105</v>
-      </c>
-      <c r="DI14" s="8">
-        <v>106</v>
-      </c>
-      <c r="DJ14" s="8">
-        <v>107</v>
-      </c>
-      <c r="DK14" s="8">
-        <v>108</v>
-      </c>
-      <c r="DL14" s="8">
-        <v>109</v>
-      </c>
-      <c r="DM14" s="8">
-        <v>110</v>
-      </c>
-      <c r="DN14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2330,23 +2312,23 @@
       <c r="DI15" s="2"/>
       <c r="DJ15" s="2"/>
       <c r="DK15" s="2"/>
-      <c r="DL15" s="2"/>
-      <c r="DM15" s="3"/>
+      <c r="DL15" s="3"/>
     </row>
-    <row r="16" spans="2:118" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2452,24 +2434,24 @@
       <c r="DI16" s="2"/>
       <c r="DJ16" s="2"/>
       <c r="DK16" s="2"/>
-      <c r="DL16" s="2"/>
-      <c r="DM16" s="3"/>
+      <c r="DL16" s="3"/>
     </row>
-    <row r="17" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2574,26 +2556,26 @@
       <c r="DI17" s="2"/>
       <c r="DJ17" s="2"/>
       <c r="DK17" s="2"/>
-      <c r="DL17" s="2"/>
-      <c r="DM17" s="3"/>
+      <c r="DL17" s="3"/>
     </row>
-    <row r="18" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2696,33 +2678,33 @@
       <c r="DI18" s="2"/>
       <c r="DJ18" s="2"/>
       <c r="DK18" s="2"/>
-      <c r="DL18" s="2"/>
-      <c r="DM18" s="3"/>
+      <c r="DL18" s="3"/>
     </row>
-    <row r="19" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -2818,20 +2800,20 @@
       <c r="DI19" s="2"/>
       <c r="DJ19" s="2"/>
       <c r="DK19" s="2"/>
-      <c r="DL19" s="2"/>
-      <c r="DM19" s="3"/>
+      <c r="DL19" s="3"/>
     </row>
-    <row r="20" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B20" s="10">
+    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2842,17 +2824,17 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -2940,20 +2922,20 @@
       <c r="DI20" s="2"/>
       <c r="DJ20" s="2"/>
       <c r="DK20" s="2"/>
-      <c r="DL20" s="2"/>
-      <c r="DM20" s="3"/>
+      <c r="DL20" s="3"/>
     </row>
-    <row r="21" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>7</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2966,10 +2948,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2981,7 +2963,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -3062,20 +3044,20 @@
       <c r="DI21" s="2"/>
       <c r="DJ21" s="2"/>
       <c r="DK21" s="2"/>
-      <c r="DL21" s="2"/>
-      <c r="DM21" s="3"/>
+      <c r="DL21" s="3"/>
     </row>
-    <row r="22" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
+    <row r="22" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>8</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3096,13 +3078,13 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -3184,20 +3166,20 @@
       <c r="DI22" s="2"/>
       <c r="DJ22" s="2"/>
       <c r="DK22" s="2"/>
-      <c r="DL22" s="2"/>
-      <c r="DM22" s="3"/>
+      <c r="DL22" s="3"/>
     </row>
-    <row r="23" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
+    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>9</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3221,13 +3203,13 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
+      <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
@@ -3306,20 +3288,20 @@
       <c r="DI23" s="2"/>
       <c r="DJ23" s="2"/>
       <c r="DK23" s="2"/>
-      <c r="DL23" s="2"/>
-      <c r="DM23" s="3"/>
+      <c r="DL23" s="3"/>
     </row>
-    <row r="24" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
+    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>10</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3345,11 +3327,11 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -3357,7 +3339,7 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
+      <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -3428,20 +3410,20 @@
       <c r="DI24" s="2"/>
       <c r="DJ24" s="2"/>
       <c r="DK24" s="2"/>
-      <c r="DL24" s="2"/>
-      <c r="DM24" s="3"/>
+      <c r="DL24" s="3"/>
     </row>
-    <row r="25" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
+    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>11</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3474,14 +3456,14 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
+      <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
+      <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
@@ -3550,20 +3532,20 @@
       <c r="DI25" s="2"/>
       <c r="DJ25" s="2"/>
       <c r="DK25" s="2"/>
-      <c r="DL25" s="2"/>
-      <c r="DM25" s="3"/>
+      <c r="DL25" s="3"/>
     </row>
-    <row r="26" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+    <row r="26" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>12</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3596,16 +3578,16 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
+      <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
+      <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
+      <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
@@ -3672,20 +3654,20 @@
       <c r="DI26" s="2"/>
       <c r="DJ26" s="2"/>
       <c r="DK26" s="2"/>
-      <c r="DL26" s="2"/>
-      <c r="DM26" s="3"/>
+      <c r="DL26" s="3"/>
     </row>
-    <row r="27" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+    <row r="27" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>13</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3722,14 +3704,14 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
+      <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
+      <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
@@ -3794,20 +3776,20 @@
       <c r="DI27" s="2"/>
       <c r="DJ27" s="2"/>
       <c r="DK27" s="2"/>
-      <c r="DL27" s="2"/>
-      <c r="DM27" s="3"/>
+      <c r="DL27" s="3"/>
     </row>
-    <row r="28" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
+    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>14</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3844,18 +3826,18 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
+      <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
+      <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
+      <c r="BC28" s="2"/>
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
@@ -3916,20 +3898,20 @@
       <c r="DI28" s="2"/>
       <c r="DJ28" s="2"/>
       <c r="DK28" s="2"/>
-      <c r="DL28" s="2"/>
-      <c r="DM28" s="3"/>
+      <c r="DL28" s="3"/>
     </row>
-    <row r="29" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>15</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3970,14 +3952,14 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
+      <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
+      <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
@@ -3985,7 +3967,7 @@
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
+      <c r="BK29" s="2"/>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
@@ -4038,20 +4020,20 @@
       <c r="DI29" s="2"/>
       <c r="DJ29" s="2"/>
       <c r="DK29" s="2"/>
-      <c r="DL29" s="2"/>
-      <c r="DM29" s="3"/>
+      <c r="DL29" s="3"/>
     </row>
-    <row r="30" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
+    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>16</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4098,15 +4080,15 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="2"/>
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
-      <c r="BI30" s="2"/>
-      <c r="BJ30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="2"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
@@ -4160,20 +4142,20 @@
       <c r="DI30" s="2"/>
       <c r="DJ30" s="2"/>
       <c r="DK30" s="2"/>
-      <c r="DL30" s="2"/>
-      <c r="DM30" s="3"/>
+      <c r="DL30" s="3"/>
     </row>
-    <row r="31" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
+    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>17</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4222,19 +4204,19 @@
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
+      <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
       <c r="BG31" s="4"/>
       <c r="BH31" s="4"/>
-      <c r="BI31" s="4"/>
+      <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
+      <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
+      <c r="BP31" s="2"/>
       <c r="BQ31" s="2"/>
       <c r="BR31" s="2"/>
       <c r="BS31" s="2"/>
@@ -4282,20 +4264,20 @@
       <c r="DI31" s="2"/>
       <c r="DJ31" s="2"/>
       <c r="DK31" s="2"/>
-      <c r="DL31" s="2"/>
-      <c r="DM31" s="3"/>
+      <c r="DL31" s="3"/>
     </row>
-    <row r="32" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
+    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>18</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4349,21 +4331,21 @@
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
+      <c r="BI32" s="4"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
       <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
-      <c r="BP32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
       <c r="BS32" s="1"/>
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
       <c r="BV32" s="1"/>
-      <c r="BW32" s="1"/>
+      <c r="BW32" s="2"/>
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
       <c r="BZ32" s="2"/>
@@ -4404,20 +4386,20 @@
       <c r="DI32" s="2"/>
       <c r="DJ32" s="2"/>
       <c r="DK32" s="2"/>
-      <c r="DL32" s="2"/>
-      <c r="DM32" s="3"/>
+      <c r="DL32" s="3"/>
     </row>
-    <row r="33" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
+    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4477,19 +4459,19 @@
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
       <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
+      <c r="BO33" s="4"/>
       <c r="BP33" s="4"/>
       <c r="BQ33" s="4"/>
       <c r="BR33" s="4"/>
-      <c r="BS33" s="4"/>
+      <c r="BS33" s="2"/>
       <c r="BT33" s="2"/>
       <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
-      <c r="BW33" s="4"/>
+      <c r="BV33" s="4"/>
+      <c r="BW33" s="1"/>
       <c r="BX33" s="1"/>
       <c r="BY33" s="1"/>
       <c r="BZ33" s="1"/>
-      <c r="CA33" s="1"/>
+      <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
       <c r="CC33" s="2"/>
       <c r="CD33" s="2"/>
@@ -4526,20 +4508,20 @@
       <c r="DI33" s="2"/>
       <c r="DJ33" s="2"/>
       <c r="DK33" s="2"/>
-      <c r="DL33" s="2"/>
-      <c r="DM33" s="3"/>
+      <c r="DL33" s="3"/>
     </row>
-    <row r="34" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
+    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>20</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4603,17 +4585,17 @@
       <c r="BP34" s="2"/>
       <c r="BQ34" s="2"/>
       <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
+      <c r="BS34" s="4"/>
       <c r="BT34" s="4"/>
       <c r="BU34" s="4"/>
       <c r="BV34" s="4"/>
-      <c r="BW34" s="4"/>
+      <c r="BW34" s="2"/>
       <c r="BX34" s="2"/>
       <c r="BY34" s="2"/>
-      <c r="BZ34" s="2"/>
-      <c r="CA34" s="4"/>
+      <c r="BZ34" s="4"/>
+      <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
+      <c r="CC34" s="2"/>
       <c r="CD34" s="2"/>
       <c r="CE34" s="2"/>
       <c r="CF34" s="2"/>
@@ -4648,20 +4630,20 @@
       <c r="DI34" s="2"/>
       <c r="DJ34" s="2"/>
       <c r="DK34" s="2"/>
-      <c r="DL34" s="2"/>
-      <c r="DM34" s="3"/>
+      <c r="DL34" s="3"/>
     </row>
-    <row r="35" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B35" s="10">
+    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>21</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4725,19 +4707,19 @@
       <c r="BP35" s="2"/>
       <c r="BQ35" s="2"/>
       <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
+      <c r="BS35" s="4"/>
       <c r="BT35" s="4"/>
       <c r="BU35" s="4"/>
       <c r="BV35" s="4"/>
-      <c r="BW35" s="4"/>
+      <c r="BW35" s="2"/>
       <c r="BX35" s="2"/>
       <c r="BY35" s="2"/>
       <c r="BZ35" s="2"/>
       <c r="CA35" s="2"/>
-      <c r="CB35" s="2"/>
-      <c r="CC35" s="4"/>
+      <c r="CB35" s="4"/>
+      <c r="CC35" s="1"/>
       <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
+      <c r="CE35" s="2"/>
       <c r="CF35" s="2"/>
       <c r="CG35" s="2"/>
       <c r="CH35" s="2"/>
@@ -4770,20 +4752,20 @@
       <c r="DI35" s="2"/>
       <c r="DJ35" s="2"/>
       <c r="DK35" s="2"/>
-      <c r="DL35" s="2"/>
-      <c r="DM35" s="3"/>
+      <c r="DL35" s="3"/>
     </row>
-    <row r="36" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B36" s="10">
+    <row r="36" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>22</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4847,21 +4829,21 @@
       <c r="BP36" s="2"/>
       <c r="BQ36" s="2"/>
       <c r="BR36" s="2"/>
-      <c r="BS36" s="2"/>
+      <c r="BS36" s="4"/>
       <c r="BT36" s="4"/>
       <c r="BU36" s="4"/>
       <c r="BV36" s="4"/>
-      <c r="BW36" s="4"/>
+      <c r="BW36" s="2"/>
       <c r="BX36" s="2"/>
       <c r="BY36" s="2"/>
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
       <c r="CB36" s="2"/>
-      <c r="CC36" s="2"/>
-      <c r="CD36" s="4"/>
-      <c r="CE36" s="2"/>
+      <c r="CC36" s="4"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="1"/>
       <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
+      <c r="CG36" s="2"/>
       <c r="CH36" s="2"/>
       <c r="CI36" s="2"/>
       <c r="CJ36" s="2"/>
@@ -4892,20 +4874,20 @@
       <c r="DI36" s="2"/>
       <c r="DJ36" s="2"/>
       <c r="DK36" s="2"/>
-      <c r="DL36" s="2"/>
-      <c r="DM36" s="3"/>
+      <c r="DL36" s="3"/>
     </row>
-    <row r="37" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B37" s="10">
+    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>23</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4972,21 +4954,21 @@
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
       <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
+      <c r="BV37" s="4"/>
       <c r="BW37" s="4"/>
       <c r="BX37" s="4"/>
       <c r="BY37" s="4"/>
       <c r="BZ37" s="4"/>
-      <c r="CA37" s="4"/>
+      <c r="CA37" s="2"/>
       <c r="CB37" s="2"/>
       <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
+      <c r="CD37" s="4"/>
       <c r="CE37" s="4"/>
       <c r="CF37" s="4"/>
-      <c r="CG37" s="4"/>
+      <c r="CG37" s="1"/>
       <c r="CH37" s="1"/>
       <c r="CI37" s="1"/>
-      <c r="CJ37" s="1"/>
+      <c r="CJ37" s="2"/>
       <c r="CK37" s="2"/>
       <c r="CL37" s="2"/>
       <c r="CM37" s="2"/>
@@ -5014,20 +4996,20 @@
       <c r="DI37" s="2"/>
       <c r="DJ37" s="2"/>
       <c r="DK37" s="2"/>
-      <c r="DL37" s="2"/>
-      <c r="DM37" s="3"/>
+      <c r="DL37" s="3"/>
     </row>
-    <row r="38" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B38" s="10">
+    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>24</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -5097,23 +5079,23 @@
       <c r="BV38" s="2"/>
       <c r="BW38" s="2"/>
       <c r="BX38" s="2"/>
-      <c r="BY38" s="2"/>
+      <c r="BY38" s="4"/>
       <c r="BZ38" s="4"/>
       <c r="CA38" s="4"/>
       <c r="CB38" s="4"/>
       <c r="CC38" s="4"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="4"/>
+      <c r="CE38" s="2"/>
       <c r="CF38" s="2"/>
-      <c r="CG38" s="2"/>
+      <c r="CG38" s="4"/>
       <c r="CH38" s="4"/>
       <c r="CI38" s="4"/>
-      <c r="CJ38" s="4"/>
+      <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
+      <c r="CO38" s="2"/>
       <c r="CP38" s="2"/>
       <c r="CQ38" s="2"/>
       <c r="CR38" s="2"/>
@@ -5136,20 +5118,20 @@
       <c r="DI38" s="2"/>
       <c r="DJ38" s="2"/>
       <c r="DK38" s="2"/>
-      <c r="DL38" s="2"/>
-      <c r="DM38" s="3"/>
+      <c r="DL38" s="3"/>
     </row>
-    <row r="39" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B39" s="10">
+    <row r="39" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>25</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -5225,21 +5207,21 @@
       <c r="CB39" s="2"/>
       <c r="CC39" s="2"/>
       <c r="CD39" s="2"/>
-      <c r="CE39" s="2"/>
+      <c r="CE39" s="4"/>
       <c r="CF39" s="4"/>
       <c r="CG39" s="4"/>
       <c r="CH39" s="4"/>
-      <c r="CI39" s="4"/>
+      <c r="CI39" s="2"/>
       <c r="CJ39" s="2"/>
       <c r="CK39" s="2"/>
-      <c r="CL39" s="2"/>
+      <c r="CL39" s="4"/>
       <c r="CM39" s="4"/>
       <c r="CN39" s="4"/>
-      <c r="CO39" s="4"/>
+      <c r="CO39" s="1"/>
       <c r="CP39" s="1"/>
       <c r="CQ39" s="1"/>
       <c r="CR39" s="1"/>
-      <c r="CS39" s="1"/>
+      <c r="CS39" s="2"/>
       <c r="CT39" s="2"/>
       <c r="CU39" s="2"/>
       <c r="CV39" s="2"/>
@@ -5258,20 +5240,20 @@
       <c r="DI39" s="2"/>
       <c r="DJ39" s="2"/>
       <c r="DK39" s="2"/>
-      <c r="DL39" s="2"/>
-      <c r="DM39" s="3"/>
+      <c r="DL39" s="3"/>
     </row>
-    <row r="40" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B40" s="10">
+    <row r="40" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>26</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5351,7 +5333,7 @@
       <c r="CF40" s="2"/>
       <c r="CG40" s="2"/>
       <c r="CH40" s="2"/>
-      <c r="CI40" s="2"/>
+      <c r="CI40" s="4"/>
       <c r="CJ40" s="4"/>
       <c r="CK40" s="4"/>
       <c r="CL40" s="4"/>
@@ -5361,7 +5343,7 @@
       <c r="CP40" s="4"/>
       <c r="CQ40" s="4"/>
       <c r="CR40" s="4"/>
-      <c r="CS40" s="4"/>
+      <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
@@ -5378,22 +5360,22 @@
       <c r="DG40" s="1"/>
       <c r="DH40" s="1"/>
       <c r="DI40" s="1"/>
-      <c r="DJ40" s="1"/>
+      <c r="DJ40" s="4"/>
       <c r="DK40" s="4"/>
-      <c r="DL40" s="4"/>
-      <c r="DM40" s="3"/>
+      <c r="DL40" s="3"/>
     </row>
-    <row r="41" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B41" s="10">
+    <row r="41" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
         <v>27</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5500,22 +5482,22 @@
       <c r="DG41" s="2"/>
       <c r="DH41" s="2"/>
       <c r="DI41" s="2"/>
-      <c r="DJ41" s="2"/>
+      <c r="DJ41" s="1"/>
       <c r="DK41" s="1"/>
-      <c r="DL41" s="1"/>
-      <c r="DM41" s="5"/>
+      <c r="DL41" s="5"/>
     </row>
-    <row r="42" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B42" s="10">
+    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
         <v>28</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5624,104 +5606,94 @@
       <c r="DI42" s="6"/>
       <c r="DJ42" s="6"/>
       <c r="DK42" s="6"/>
-      <c r="DL42" s="6"/>
-      <c r="DM42" s="7"/>
+      <c r="DL42" s="7"/>
     </row>
-    <row r="43" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+    <row r="45" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="F46" s="21"/>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="F47" s="20"/>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
+    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="F48" s="19"/>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
+    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="E48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="CP10:CS13"/>
-    <mergeCell ref="AP10:AT13"/>
-    <mergeCell ref="AU10:BC13"/>
-    <mergeCell ref="BD10:BG13"/>
-    <mergeCell ref="BH10:BK13"/>
-    <mergeCell ref="BL10:BO13"/>
-    <mergeCell ref="B10:G13"/>
-    <mergeCell ref="BP10:BX13"/>
-    <mergeCell ref="BY10:CB13"/>
-    <mergeCell ref="CC10:CF13"/>
-    <mergeCell ref="CG10:CO13"/>
-    <mergeCell ref="L10:T13"/>
-    <mergeCell ref="U10:X13"/>
-    <mergeCell ref="Y10:AG13"/>
-    <mergeCell ref="AH10:AK13"/>
-    <mergeCell ref="AL10:AO13"/>
-    <mergeCell ref="H10:K13"/>
-    <mergeCell ref="DN10:DN13"/>
-    <mergeCell ref="CT10:CW13"/>
-    <mergeCell ref="CX10:DA13"/>
-    <mergeCell ref="DB10:DJ13"/>
-    <mergeCell ref="DK10:DM13"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="CO10:CR13"/>
+    <mergeCell ref="AO10:AS13"/>
+    <mergeCell ref="AT10:BB13"/>
+    <mergeCell ref="BC10:BF13"/>
+    <mergeCell ref="BG10:BJ13"/>
+    <mergeCell ref="BK10:BN13"/>
+    <mergeCell ref="A10:F13"/>
+    <mergeCell ref="BO10:BW13"/>
+    <mergeCell ref="BX10:CA13"/>
+    <mergeCell ref="CB10:CE13"/>
+    <mergeCell ref="CF10:CN13"/>
+    <mergeCell ref="K10:S13"/>
+    <mergeCell ref="T10:W13"/>
+    <mergeCell ref="X10:AF13"/>
+    <mergeCell ref="AG10:AJ13"/>
+    <mergeCell ref="AK10:AN13"/>
+    <mergeCell ref="G10:J13"/>
+    <mergeCell ref="DM10:DM13"/>
+    <mergeCell ref="CS10:CV13"/>
+    <mergeCell ref="CW10:CZ13"/>
+    <mergeCell ref="DA10:DI13"/>
+    <mergeCell ref="DJ10:DL13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
